--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the ImagingStudy resource is derived from the general ImagingStudy resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the ImagingStudy resource is derived from the general ImagingStudy resource in absence of a corresponding profile in the HL7® Austria FHIR® Core implementation guide and also ensures IPS conformity via the IPS profile referenced by the so-called [`imposeProfile`](http://hl7.org/fhir/StructureDefinition/structuredefinition-imposeProfile) extension.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-imagingstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
     <t>Identifiers for the ImagingStudy such as DICOM Study Instance UID, and Accession Number.</t>
   </si>
   <si>
-    <t>See discussion under [Imaging Study Implementation Notes](imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.</t>
+    <t>See discussion under [Imaging Study Implementation Notes](http://hl7.org/fhir/R4/imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.</t>
   </si>
   <si>
     <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).</t>
